--- a/biology/Microbiologie/Plasmodium_malariae/Plasmodium_malariae.xlsx
+++ b/biology/Microbiologie/Plasmodium_malariae/Plasmodium_malariae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Plasmodium malariae est une des espèces de parasites responsables du paludisme chez l’homme. On le lie étroitement à Plasmodium falciparum  et Plasmodium vivax qui sont responsables de la plupart des infections malariques chez l’être humain. Bien que réparti sur toute la planète, il ne provoque que des « accès paludiques bénins » et est bien moins dangereux que les autres Plasmodium. Il est aussi le seul à provoquer des fièvres quartanes (tous les quatre jours) au lieu de fièvres tertianes (tous les trois jours).
@@ -512,10 +524,12 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Plasmodium cause une infection durable et chronique qui, dans certains cas, peut durer la vie entière. Parfois, il peut causer des complications sérieuses telles que le syndrome néphrotique.
-En raison d’une similitude d’aspect, en tant que microbes pathogènes, P. malariae et P. knowlesi  sont souvent mal diagnostiqués comme étant du paludisme. L’analyse moléculaire est habituellement exigée pour un diagnostic précis[1].
+En raison d’une similitude d’aspect, en tant que microbes pathogènes, P. malariae et P. knowlesi  sont souvent mal diagnostiqués comme étant du paludisme. L’analyse moléculaire est habituellement exigée pour un diagnostic précis.
 </t>
         </is>
       </c>
